--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1551.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1551.xlsx
@@ -354,10 +354,10 @@
         <v>1.529986538276226</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.230221010068535</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1551.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1551.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.097445302414203</v>
+        <v>1.65198540687561</v>
       </c>
       <c r="B1">
-        <v>1.529986538276226</v>
+        <v>3.472146272659302</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.003684997558594</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.267269611358643</v>
       </c>
       <c r="E1">
-        <v>1.230221010068535</v>
+        <v>0.7433198690414429</v>
       </c>
     </row>
   </sheetData>
